--- a/Automation_vinayak/scripts/ApiMumbai.xlsx
+++ b/Automation_vinayak/scripts/ApiMumbai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test_steps" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="ExecutionStatus">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:FP7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
